--- a/Data_preparation/datasets/final_data/DOCUSIGN_INC.xlsx
+++ b/Data_preparation/datasets/final_data/DOCUSIGN_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,96 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -742,22 +652,22 @@
         <v>42766</v>
       </c>
       <c r="D2">
-        <v>63.06000137329102</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>71.44000244140625</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="F2">
-        <v>73.08000183105469</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="G2">
-        <v>62.2400016784668</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>185748673</v>
+        <v>201104117</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-191244000</v>
@@ -783,22 +693,22 @@
         <v>42855</v>
       </c>
       <c r="D3">
-        <v>105.2824839738816</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>100.4015350341797</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="F3">
-        <v>105.525874177026</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="G3">
-        <v>98.53335616363826</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>931519242</v>
+        <v>201104117</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>113498000</v>
@@ -860,22 +770,22 @@
         <v>42947</v>
       </c>
       <c r="D4">
-        <v>28.84000015258789</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>26.34000015258789</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="F4">
-        <v>29.97999954223633</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="G4">
-        <v>24.48999977111816</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>48253392</v>
+        <v>201104117</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>125543000</v>
@@ -937,22 +847,22 @@
         <v>43039</v>
       </c>
       <c r="D5">
-        <v>27.76754404304676</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>29.36128807067871</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="F5">
-        <v>29.5525363117698</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="G5">
-        <v>27.35772563911961</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>174270076</v>
+        <v>201104117</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>130589000</v>
@@ -1014,22 +924,22 @@
         <v>43131</v>
       </c>
       <c r="D6">
-        <v>40.04395874521859</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>41.37875747680664</v>
+        <v>38.63000106811523</v>
       </c>
       <c r="F6">
-        <v>42.73034651222623</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="G6">
-        <v>35.29241164327789</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>4757218036</v>
+        <v>201104117</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-257436000</v>
@@ -1106,22 +1016,22 @@
         <v>43220</v>
       </c>
       <c r="D7">
-        <v>29.79999923706055</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="E7">
-        <v>26.26000022888184</v>
+        <v>49.81000137329102</v>
       </c>
       <c r="F7">
-        <v>30.10000038146973</v>
+        <v>51.20100021362305</v>
       </c>
       <c r="G7">
-        <v>24.76000022888184</v>
+        <v>37.84999847412109</v>
       </c>
       <c r="H7">
-        <v>158300823</v>
+        <v>201104117</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>5875971945</v>
@@ -1219,22 +1129,22 @@
         <v>43312</v>
       </c>
       <c r="D8">
-        <v>27.97210020819945</v>
+        <v>54.29999923706055</v>
       </c>
       <c r="E8">
-        <v>28.09128570556641</v>
+        <v>62.43999862670898</v>
       </c>
       <c r="F8">
-        <v>28.76056376347318</v>
+        <v>68.34999847412109</v>
       </c>
       <c r="G8">
-        <v>26.88108696871215</v>
+        <v>54.19499969482422</v>
       </c>
       <c r="H8">
-        <v>174270076</v>
+        <v>201104117</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>8439945298</v>
@@ -1332,22 +1242,22 @@
         <v>43404</v>
       </c>
       <c r="D9">
-        <v>193.5399932861328</v>
+        <v>42.13999938964844</v>
       </c>
       <c r="E9">
-        <v>198.6300048828125</v>
+        <v>41.7599983215332</v>
       </c>
       <c r="F9">
-        <v>201.3699951171875</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="G9">
-        <v>174.6600036621094</v>
+        <v>35.06000137329102</v>
       </c>
       <c r="H9">
-        <v>24003656</v>
+        <v>201104117</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>6576552223</v>
@@ -1448,22 +1358,22 @@
         <v>43496</v>
       </c>
       <c r="D10">
-        <v>159.5487626816853</v>
+        <v>49.33000183105469</v>
       </c>
       <c r="E10">
-        <v>173.8226776123047</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="F10">
-        <v>175.6270923461549</v>
+        <v>56.22999954223633</v>
       </c>
       <c r="G10">
-        <v>155.512558863845</v>
+        <v>48.20999908447266</v>
       </c>
       <c r="H10">
-        <v>2319000000</v>
+        <v>201104117</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>8171645384</v>
@@ -1564,22 +1474,22 @@
         <v>43585</v>
       </c>
       <c r="D11">
-        <v>2.247999906539917</v>
+        <v>57.09999847412109</v>
       </c>
       <c r="E11">
-        <v>1.899999976158142</v>
+        <v>56.06000137329102</v>
       </c>
       <c r="F11">
-        <v>2.303999900817871</v>
+        <v>57.41999816894531</v>
       </c>
       <c r="G11">
-        <v>1.820999979972839</v>
+        <v>50.02000045776367</v>
       </c>
       <c r="H11">
-        <v>594273308</v>
+        <v>201104117</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>9628233000</v>
@@ -1680,22 +1590,22 @@
         <v>43677</v>
       </c>
       <c r="D12">
-        <v>60.4644694886448</v>
+        <v>51.72999954223633</v>
       </c>
       <c r="E12">
-        <v>59.11875152587891</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="F12">
-        <v>61.39157352261505</v>
+        <v>53</v>
       </c>
       <c r="G12">
-        <v>56.74611594136378</v>
+        <v>43.13000106811523</v>
       </c>
       <c r="H12">
-        <v>5817000000</v>
+        <v>201104117</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>8988936000</v>
@@ -1796,22 +1706,22 @@
         <v>43769</v>
       </c>
       <c r="D13">
-        <v>2.049999952316284</v>
+        <v>66.77999877929688</v>
       </c>
       <c r="E13">
-        <v>2.130000114440918</v>
+        <v>71.20999908447266</v>
       </c>
       <c r="F13">
-        <v>2.249000072479248</v>
+        <v>73.22000122070312</v>
       </c>
       <c r="G13">
-        <v>2.000999927520752</v>
+        <v>64.25</v>
       </c>
       <c r="H13">
-        <v>594273308</v>
+        <v>201104117</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>11649440000</v>
@@ -1912,22 +1822,22 @@
         <v>43861</v>
       </c>
       <c r="D14">
-        <v>23.6926327642264</v>
+        <v>79.09999847412109</v>
       </c>
       <c r="E14">
-        <v>20.75907325744629</v>
+        <v>86.30999755859375</v>
       </c>
       <c r="F14">
-        <v>25.38844422011294</v>
+        <v>92.5500030517578</v>
       </c>
       <c r="G14">
-        <v>19.00478605726309</v>
+        <v>76.18000030517578</v>
       </c>
       <c r="H14">
-        <v>862100000</v>
+        <v>201104117</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>14089021157</v>
@@ -2028,22 +1938,22 @@
         <v>43951</v>
       </c>
       <c r="D15">
-        <v>29.1299991607666</v>
+        <v>103.1900024414062</v>
       </c>
       <c r="E15">
-        <v>36.31999969482422</v>
+        <v>139.7400054931641</v>
       </c>
       <c r="F15">
-        <v>36.45000076293945</v>
+        <v>141.4299926757812</v>
       </c>
       <c r="G15">
-        <v>26.57999992370605</v>
+        <v>101.879997253418</v>
       </c>
       <c r="H15">
-        <v>2085418676</v>
+        <v>201104117</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>19007528046</v>
@@ -2144,22 +2054,22 @@
         <v>44043</v>
       </c>
       <c r="D16">
-        <v>49.18523125628565</v>
+        <v>218.7200012207031</v>
       </c>
       <c r="E16">
-        <v>44.42190551757812</v>
+        <v>223</v>
       </c>
       <c r="F16">
-        <v>50.24917073284447</v>
+        <v>229.8300018310547</v>
       </c>
       <c r="G16">
-        <v>41.23985008431981</v>
+        <v>189.1199951171875</v>
       </c>
       <c r="H16">
-        <v>1122466035</v>
+        <v>201104117</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>39790225030</v>
@@ -2260,22 +2170,22 @@
         <v>44135</v>
       </c>
       <c r="D17">
-        <v>478.8699951171875</v>
+        <v>204.2100067138672</v>
       </c>
       <c r="E17">
-        <v>490.7000122070313</v>
+        <v>227.8800048828125</v>
       </c>
       <c r="F17">
-        <v>518.72998046875</v>
+        <v>246</v>
       </c>
       <c r="G17">
-        <v>463.4100036621094</v>
+        <v>185.3589935302734</v>
       </c>
       <c r="H17">
-        <v>424926346</v>
+        <v>201104117</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>37449598800</v>
@@ -2376,22 +2286,22 @@
         <v>44227</v>
       </c>
       <c r="D18">
-        <v>239.3500061035156</v>
+        <v>233.25</v>
       </c>
       <c r="E18">
-        <v>283.4599914550781</v>
+        <v>226.6600036621093</v>
       </c>
       <c r="F18">
-        <v>354.8200073242188</v>
+        <v>275.4599914550781</v>
       </c>
       <c r="G18">
-        <v>235.8800048828125</v>
+        <v>219.1499938964844</v>
       </c>
       <c r="H18">
-        <v>278228356</v>
+        <v>201104117</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>43447240633</v>
@@ -2492,22 +2402,22 @@
         <v>44316</v>
       </c>
       <c r="D19">
-        <v>55.13000106811523</v>
+        <v>224.0299987792969</v>
       </c>
       <c r="E19">
-        <v>54.95000076293945</v>
+        <v>201.6199951171875</v>
       </c>
       <c r="F19">
-        <v>56.47000122070312</v>
+        <v>224.0299987792969</v>
       </c>
       <c r="G19">
-        <v>47.61999893188477</v>
+        <v>179.4900054931641</v>
       </c>
       <c r="H19">
-        <v>150594095</v>
+        <v>201104117</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>43046940626</v>
@@ -2608,22 +2518,22 @@
         <v>44408</v>
       </c>
       <c r="D20">
-        <v>82.94634035907019</v>
+        <v>299.7999877929688</v>
       </c>
       <c r="E20">
-        <v>84.26999664306641</v>
+        <v>296.239990234375</v>
       </c>
       <c r="F20">
-        <v>86.77550126072052</v>
+        <v>314.760009765625</v>
       </c>
       <c r="G20">
-        <v>82.34123106917598</v>
+        <v>281.2799987792969</v>
       </c>
       <c r="H20">
-        <v>2850792605</v>
+        <v>201104117</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>58068660655</v>
@@ -2724,22 +2634,22 @@
         <v>44500</v>
       </c>
       <c r="D21">
-        <v>80.87172081815871</v>
+        <v>277.2699890136719</v>
       </c>
       <c r="E21">
-        <v>78.30628967285156</v>
+        <v>246.3600006103516</v>
       </c>
       <c r="F21">
-        <v>84.50996293035827</v>
+        <v>288.135009765625</v>
       </c>
       <c r="G21">
-        <v>78.21299557369527</v>
+        <v>233.3300018310547</v>
       </c>
       <c r="H21">
-        <v>123248686</v>
+        <v>201104117</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>54744737655</v>
@@ -2840,22 +2750,22 @@
         <v>44592</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>127.5899963378906</v>
       </c>
       <c r="E22">
-        <v>153.5630035400391</v>
+        <v>118.4300003051758</v>
       </c>
       <c r="F22">
-        <v>163.8345031738281</v>
+        <v>131.9069976806641</v>
       </c>
       <c r="G22">
-        <v>138.3329925537109</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>10664912097</v>
+        <v>201104117</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>24886930298</v>
@@ -2956,22 +2866,22 @@
         <v>44681</v>
       </c>
       <c r="D23">
-        <v>150.5399932861328</v>
+        <v>80.73000335693359</v>
       </c>
       <c r="E23">
-        <v>153.7299957275391</v>
+        <v>83.91000366210938</v>
       </c>
       <c r="F23">
-        <v>158.7100067138672</v>
+        <v>88.58000183105469</v>
       </c>
       <c r="G23">
-        <v>132.3200073242188</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="H23">
-        <v>272490000</v>
+        <v>201104117</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>16108378227</v>
@@ -3072,22 +2982,22 @@
         <v>44773</v>
       </c>
       <c r="D24">
-        <v>3.940000057220459</v>
+        <v>63.31000137329102</v>
       </c>
       <c r="E24">
-        <v>3.509999990463257</v>
+        <v>58.22000122070312</v>
       </c>
       <c r="F24">
-        <v>4.380000114440918</v>
+        <v>77.23999786376953</v>
       </c>
       <c r="G24">
-        <v>3.339999914169312</v>
+        <v>56.91999816894531</v>
       </c>
       <c r="H24">
-        <v>448228270</v>
+        <v>201104117</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>12792417120</v>
@@ -3188,22 +3098,22 @@
         <v>44865</v>
       </c>
       <c r="D25">
-        <v>83.23999786376953</v>
+        <v>49.72999954223633</v>
       </c>
       <c r="E25">
-        <v>75.77999877929688</v>
+        <v>47.06999969482422</v>
       </c>
       <c r="F25">
-        <v>86.87999725341797</v>
+        <v>54.32500076293945</v>
       </c>
       <c r="G25">
-        <v>66.44699859619141</v>
+        <v>39.56999969482422</v>
       </c>
       <c r="H25">
-        <v>323270704</v>
+        <v>201104117</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>9697637727</v>
@@ -3304,22 +3214,22 @@
         <v>44957</v>
       </c>
       <c r="D26">
-        <v>3.789999961853027</v>
+        <v>61</v>
       </c>
       <c r="E26">
-        <v>3.700000047683716</v>
+        <v>61.34999847412109</v>
       </c>
       <c r="F26">
-        <v>4.099999904632568</v>
+        <v>69.44999694824219</v>
       </c>
       <c r="G26">
-        <v>3.440000057220459</v>
+        <v>58.06000137329102</v>
       </c>
       <c r="H26">
-        <v>72969110</v>
+        <v>201104117</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>12193136335</v>
@@ -3420,22 +3330,22 @@
         <v>45046</v>
       </c>
       <c r="D27">
-        <v>80.47000122070312</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="E27">
-        <v>81.30999755859375</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="F27">
-        <v>87.41999816894531</v>
+        <v>56.97999954223633</v>
       </c>
       <c r="G27">
-        <v>75.16000366210938</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="H27">
-        <v>136895573</v>
+        <v>201104117</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>9982174696</v>
@@ -3536,22 +3446,22 @@
         <v>45138</v>
       </c>
       <c r="D28">
-        <v>572.4199829101562</v>
+        <v>53.36999893188477</v>
       </c>
       <c r="E28">
-        <v>546.52001953125</v>
+        <v>50.29999923706055</v>
       </c>
       <c r="F28">
-        <v>579.1199951171875</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="G28">
-        <v>477.510009765625</v>
+        <v>46.65999984741211</v>
       </c>
       <c r="H28">
-        <v>52693110</v>
+        <v>201104117</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>10891609104</v>
@@ -3652,22 +3562,22 @@
         <v>45230</v>
       </c>
       <c r="D29">
-        <v>204.0399932861328</v>
+        <v>38.81000137329102</v>
       </c>
       <c r="E29">
-        <v>240.0800018310547</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="F29">
-        <v>252.75</v>
+        <v>44.33000183105469</v>
       </c>
       <c r="G29">
-        <v>197.8500061035156</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="H29">
-        <v>3325150886</v>
+        <v>201104117</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>7900613549</v>
@@ -3768,22 +3678,22 @@
         <v>45322</v>
       </c>
       <c r="D30">
-        <v>354.4882078035527</v>
+        <v>61.15000152587891</v>
       </c>
       <c r="E30">
-        <v>364.9865112304687</v>
+        <v>53.27000045776367</v>
       </c>
       <c r="F30">
-        <v>370.4596485847449</v>
+        <v>62.68999862670898</v>
       </c>
       <c r="G30">
-        <v>349.5896494174895</v>
+        <v>49.11999893188477</v>
       </c>
       <c r="H30">
-        <v>622000000</v>
+        <v>201104117</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>12423652822</v>
@@ -3896,22 +3806,22 @@
         <v>45412</v>
       </c>
       <c r="D31">
-        <v>32.91999816894531</v>
+        <v>56.36000061035156</v>
       </c>
       <c r="E31">
-        <v>29.47999954223633</v>
+        <v>54.7400016784668</v>
       </c>
       <c r="F31">
-        <v>34.43000030517578</v>
+        <v>61.13999938964844</v>
       </c>
       <c r="G31">
-        <v>29.14999961853028</v>
+        <v>53.5</v>
       </c>
       <c r="H31">
-        <v>48253392</v>
+        <v>201104117</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>11626496301</v>
@@ -4015,22 +3925,22 @@
         <v>45504</v>
       </c>
       <c r="D32">
-        <v>65.3347813084503</v>
+        <v>55.43999862670898</v>
       </c>
       <c r="E32">
-        <v>75.98967742919922</v>
+        <v>59.20999908447266</v>
       </c>
       <c r="F32">
-        <v>78.74061759069839</v>
+        <v>59.77999877929688</v>
       </c>
       <c r="G32">
-        <v>53.01535875336031</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="H32">
-        <v>862100000</v>
+        <v>201104117</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>11357663320</v>
@@ -4143,22 +4053,22 @@
         <v>45596</v>
       </c>
       <c r="D33">
-        <v>171.1399993896484</v>
+        <v>69.87000274658203</v>
       </c>
       <c r="E33">
-        <v>336.75</v>
+        <v>79.69000244140625</v>
       </c>
       <c r="F33">
-        <v>344.7699890136719</v>
+        <v>86.75</v>
       </c>
       <c r="G33">
-        <v>158.3300018310547</v>
+        <v>69.27999877929688</v>
       </c>
       <c r="H33">
-        <v>307636373</v>
+        <v>201104117</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>14082246828</v>
@@ -4271,22 +4181,22 @@
         <v>45688</v>
       </c>
       <c r="D34">
-        <v>29.5</v>
+        <v>93.06199645996094</v>
       </c>
       <c r="E34">
-        <v>23.45000076293945</v>
+        <v>83.16999816894531</v>
       </c>
       <c r="F34">
-        <v>35.97999954223633</v>
+        <v>99.3000030517578</v>
       </c>
       <c r="G34">
-        <v>22.81999969482422</v>
+        <v>78.51399993896484</v>
       </c>
       <c r="H34">
-        <v>134349704</v>
+        <v>201104117</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>19541698429</v>
@@ -4399,22 +4309,22 @@
         <v>45777</v>
       </c>
       <c r="D35">
-        <v>160.2100067138672</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="E35">
-        <v>168.3200073242188</v>
+        <v>88.61000061035156</v>
       </c>
       <c r="F35">
-        <v>174.2599945068359</v>
+        <v>92.97000122070312</v>
       </c>
       <c r="G35">
-        <v>151.6699981689453</v>
+        <v>80.54000091552734</v>
       </c>
       <c r="H35">
-        <v>119792704</v>
+        <v>201104117</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>16553534610</v>
@@ -4527,22 +4437,22 @@
         <v>45869</v>
       </c>
       <c r="D36">
-        <v>77.06999969482422</v>
+        <v>74.88999938964844</v>
       </c>
       <c r="E36">
-        <v>62.86999893188477</v>
+        <v>76.66000366210938</v>
       </c>
       <c r="F36">
-        <v>80.05999755859375</v>
+        <v>77.19000244140625</v>
       </c>
       <c r="G36">
-        <v>62.61999893188477</v>
+        <v>66.35199737548828</v>
       </c>
       <c r="H36">
-        <v>862100000</v>
+        <v>201104117</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>15284028074</v>
